--- a/data_excel/884.xlsx
+++ b/data_excel/884.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -121,7 +121,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=</t>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +504,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" activeCellId="2" sqref="G4 C17 C10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -586,7 +586,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
